--- a/SAM (AGUA_and_PARSER)/arquivo_consolidado_DPSP.xlsx
+++ b/SAM (AGUA_and_PARSER)/arquivo_consolidado_DPSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM (AGUA_and_PARSER)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA07F9D-3689-4657-BA34-9A74256B0D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B27C470-4717-4D6B-AED2-A49C494A100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,18 +40,6 @@
     <t>Nr_medidor</t>
   </si>
   <si>
-    <t>Dc_indentificador_layout</t>
-  </si>
-  <si>
-    <t>Concessionária</t>
-  </si>
-  <si>
-    <t>Nº da Conta</t>
-  </si>
-  <si>
-    <t>Identificador</t>
-  </si>
-  <si>
     <t>Vencimento</t>
   </si>
   <si>
@@ -118,12 +106,6 @@
     <t>Tensão nominal</t>
   </si>
   <si>
-    <t>Emissão</t>
-  </si>
-  <si>
-    <t>Nota Fiscal</t>
-  </si>
-  <si>
     <t>Endereço cliente</t>
   </si>
   <si>
@@ -145,7 +127,25 @@
     <t>Subcategoria</t>
   </si>
   <si>
-    <t>Localidade</t>
+    <t>FATURA</t>
+  </si>
+  <si>
+    <t>CONTRATO</t>
+  </si>
+  <si>
+    <t>LOCALIDADE</t>
+  </si>
+  <si>
+    <t>FORNECEDOR</t>
+  </si>
+  <si>
+    <t>DATA EMISSÃO</t>
+  </si>
+  <si>
+    <t>NOTA FISCAL</t>
+  </si>
+  <si>
+    <t>Dc_identificador_layout</t>
   </si>
 </sst>
 </file>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,83 +578,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>29</v>
+      <c r="Z1" t="s">
+        <v>36</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>0</v>
@@ -666,34 +666,34 @@
         <v>2</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AM1" t="s">
         <v>34</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
